--- a/December/Others/Service chalan list.xlsx
+++ b/December/Others/Service chalan list.xlsx
@@ -659,7 +659,7 @@
   </sheetPr>
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
       <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
